--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3725.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3725.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.302358268104581</v>
+        <v>0.9161549210548401</v>
       </c>
       <c r="B1">
-        <v>2.556606433574489</v>
+        <v>2.573136806488037</v>
       </c>
       <c r="C1">
-        <v>5.939002438370052</v>
+        <v>2.65956974029541</v>
       </c>
       <c r="D1">
-        <v>2.347841402210698</v>
+        <v>2.635978937149048</v>
       </c>
       <c r="E1">
-        <v>1.0802244943295</v>
+        <v>1.891165852546692</v>
       </c>
     </row>
   </sheetData>
